--- a/biology/Histoire de la zoologie et de la botanique/Étienne_Marcellin_Granier-Blanc/Étienne_Marcellin_Granier-Blanc.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Étienne_Marcellin_Granier-Blanc/Étienne_Marcellin_Granier-Blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Marcellin_Granier-Blanc</t>
+          <t>Étienne_Marcellin_Granier-Blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Étienne Marcellin Granier-Blanc, en religion Frère Sennen, (né le 13 juillet 1861 à Coupiac et mort le 16 janvier 1937 à Marseille), est un botaniste et explorateur français, frère des Écoles chrétiennes de la Salle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Marcellin_Granier-Blanc</t>
+          <t>Étienne_Marcellin_Granier-Blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étienne Marcellin Granier-Blanc est né le 13 juillet 1861 à Moussac, hameau de la commune de Coupiac, dans le département de l'Aveyron[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étienne Marcellin Granier-Blanc est né le 13 juillet 1861 à Moussac, hameau de la commune de Coupiac, dans le département de l'Aveyron.
 Frère des Écoles chrétiennes sous le nom de Frère Sennen, il se consacre à la botanique, d'abord en France dans le Languedoc. Il se rend ensuite en Espagne, à Barcelone. Il herborise également autour de Béziers, de Prades[pas clair], puis dans la région de l'Ampurdan en Espagne, et élargit ensuite ses études à toute l'Espagne. Il effectue des recherches aux environs de Melilla au Maroc.
-Il est nommé vice-président de la Société botanique de France[1] ainsi que président de la « Sociedad Iberica de Ciencias Naturales », correspondant de l’Académie de Sciences et Arts de Barcelone, membre honoraire de l'« Institucio Catalana de Ciencies Naturals ».
-Il décède à Marseille, à Saint-Louis-la-Calade (XVe arrondissement), le 16 janvier 1937[1].
+Il est nommé vice-président de la Société botanique de France ainsi que président de la « Sociedad Iberica de Ciencias Naturales », correspondant de l’Académie de Sciences et Arts de Barcelone, membre honoraire de l'« Institucio Catalana de Ciencies Naturals ».
+Il décède à Marseille, à Saint-Louis-la-Calade (XVe arrondissement), le 16 janvier 1937.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Marcellin_Granier-Blanc</t>
+          <t>Étienne_Marcellin_Granier-Blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a participé à des explorations botaniques approfondies de la péninsule ibérique, du sud de la France et du Maroc, constituant un vaste herbier[2]. En outre, il a distribué plus de 400 000 fiches aux principales institutions européennes de son temps. Son herbier, avec 85 000 spécimens, est très important pour interpréter les nombreuses propositions de nomenclature faites par cet auteur. Ses différentes duplications se trouvent par exemple dans l'herbier de l'Institut Botànic de Barcelona (BC)". L'école La Salle Bonanova de Barcelone possède également une herboristerie avec 40 000 échantillons prélevés par ce religieux.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a participé à des explorations botaniques approfondies de la péninsule ibérique, du sud de la France et du Maroc, constituant un vaste herbier. En outre, il a distribué plus de 400 000 fiches aux principales institutions européennes de son temps. Son herbier, avec 85 000 spécimens, est très important pour interpréter les nombreuses propositions de nomenclature faites par cet auteur. Ses différentes duplications se trouvent par exemple dans l'herbier de l'Institut Botànic de Barcelona (BC)". L'école La Salle Bonanova de Barcelone possède également une herboristerie avec 40 000 échantillons prélevés par ce religieux.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Marcellin_Granier-Blanc</t>
+          <t>Étienne_Marcellin_Granier-Blanc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1894. Fr. Sennén et abbé H. Coste : Plantes adventices observées dans la vallée de l’Orb à Bédarieux et à Hérépian. Bulletin de la Société Botanique de France (BSBF), XLI, p.98-113.
 1900. Comptes rendus des recherches botaniques faites par les Frères des Ecoles chrétiennes de La Nouvelle (Aude).BSBF, XLVII, p.424-146.
@@ -607,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Marcellin_Granier-Blanc</t>
+          <t>Étienne_Marcellin_Granier-Blanc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,7 +643,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chevalier de la Légion d'honneur</t>
         </is>
